--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Col1a2-Cd93.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H2">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I2">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J2">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N2">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P2">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q2">
-        <v>873.320846588256</v>
+        <v>4983.976829510748</v>
       </c>
       <c r="R2">
-        <v>7859.887619294303</v>
+        <v>44855.79146559673</v>
       </c>
       <c r="S2">
-        <v>0.001167921833557127</v>
+        <v>0.003840307679076366</v>
       </c>
       <c r="T2">
-        <v>0.001167921833557127</v>
+        <v>0.003840307679076366</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H3">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I3">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J3">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -623,22 +623,22 @@
         <v>1.347366</v>
       </c>
       <c r="O3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P3">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q3">
-        <v>2.884969300272</v>
+        <v>7.963276338915335</v>
       </c>
       <c r="R3">
-        <v>25.964723702448</v>
+        <v>71.66948705023802</v>
       </c>
       <c r="S3">
-        <v>3.858168104073982E-06</v>
+        <v>6.135949728712066E-06</v>
       </c>
       <c r="T3">
-        <v>3.858168104073982E-06</v>
+        <v>6.135949728712064E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H4">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I4">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J4">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N4">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P4">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q4">
-        <v>18.605785106784</v>
+        <v>78.94475654072701</v>
       </c>
       <c r="R4">
-        <v>167.452065961056</v>
+        <v>710.5028088665431</v>
       </c>
       <c r="S4">
-        <v>2.488215269517107E-05</v>
+        <v>6.082936681628374E-05</v>
       </c>
       <c r="T4">
-        <v>2.488215269517107E-05</v>
+        <v>6.082936681628373E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.423576</v>
+        <v>17.73076433333334</v>
       </c>
       <c r="H5">
-        <v>19.270728</v>
+        <v>53.19229300000001</v>
       </c>
       <c r="I5">
-        <v>0.001681024218962088</v>
+        <v>0.004631884691211661</v>
       </c>
       <c r="J5">
-        <v>0.001681024218962089</v>
+        <v>0.00463188469121166</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N5">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P5">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q5">
-        <v>362.184759427232</v>
+        <v>940.4058744801233</v>
       </c>
       <c r="R5">
-        <v>3259.662834845088</v>
+        <v>8463.65287032111</v>
       </c>
       <c r="S5">
-        <v>0.0004843620646057163</v>
+        <v>0.0007246116955902985</v>
       </c>
       <c r="T5">
-        <v>0.0004843620646057163</v>
+        <v>0.0007246116955902985</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I6">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J6">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N6">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P6">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q6">
-        <v>486808.5180957827</v>
+        <v>1006490.698504746</v>
       </c>
       <c r="R6">
-        <v>4381276.662862044</v>
+        <v>9058416.286542714</v>
       </c>
       <c r="S6">
-        <v>0.651025678897724</v>
+        <v>0.7755320882513296</v>
       </c>
       <c r="T6">
-        <v>0.651025678897724</v>
+        <v>0.7755320882513295</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I7">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J7">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K7">
         <v>2</v>
@@ -871,10 +871,10 @@
         <v>1.347366</v>
       </c>
       <c r="O7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P7">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q7">
         <v>1608.146233201489</v>
@@ -883,10 +883,10 @@
         <v>14473.3160988134</v>
       </c>
       <c r="S7">
-        <v>0.002150628952287199</v>
+        <v>0.001239126211798151</v>
       </c>
       <c r="T7">
-        <v>0.002150628952287199</v>
+        <v>0.001239126211798151</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I8">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J8">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N8">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P8">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q8">
-        <v>10371.2795946945</v>
+        <v>15942.52258226556</v>
       </c>
       <c r="R8">
-        <v>93341.51635225046</v>
+        <v>143482.7032403901</v>
       </c>
       <c r="S8">
-        <v>0.0138698668741158</v>
+        <v>0.01228420476074583</v>
       </c>
       <c r="T8">
-        <v>0.0138698668741158</v>
+        <v>0.01228420476074583</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>10741.933594</v>
       </c>
       <c r="I9">
-        <v>0.9370403925578976</v>
+        <v>0.9353873458333681</v>
       </c>
       <c r="J9">
-        <v>0.9370403925578976</v>
+        <v>0.935387345833368</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N9">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P9">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q9">
-        <v>201889.8629323288</v>
+        <v>189910.5469108651</v>
       </c>
       <c r="R9">
-        <v>1817008.766390959</v>
+        <v>1709194.922197786</v>
       </c>
       <c r="S9">
-        <v>0.2699942178337706</v>
+        <v>0.1463319266094945</v>
       </c>
       <c r="T9">
-        <v>0.2699942178337706</v>
+        <v>0.1463319266094945</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H10">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I10">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J10">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N10">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P10">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q10">
-        <v>31710.76835179718</v>
+        <v>63869.10465318947</v>
       </c>
       <c r="R10">
-        <v>285396.9151661746</v>
+        <v>574821.9418787052</v>
       </c>
       <c r="S10">
-        <v>0.04240789494676688</v>
+        <v>0.04921311262987015</v>
       </c>
       <c r="T10">
-        <v>0.04240789494676689</v>
+        <v>0.04921311262987015</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H11">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I11">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J11">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,22 +1119,22 @@
         <v>1.347366</v>
       </c>
       <c r="O11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P11">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q11">
-        <v>104.754848736714</v>
+        <v>102.0484940581833</v>
       </c>
       <c r="R11">
-        <v>942.7936386304261</v>
+        <v>918.43644652365</v>
       </c>
       <c r="S11">
-        <v>0.0001400922415725462</v>
+        <v>7.863150828658468E-05</v>
       </c>
       <c r="T11">
-        <v>0.0001400922415725462</v>
+        <v>7.863150828658467E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H12">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I12">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J12">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N12">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P12">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q12">
-        <v>675.586462672308</v>
+        <v>1011.668209905225</v>
       </c>
       <c r="R12">
-        <v>6080.278164050773</v>
+        <v>9105.013889147025</v>
       </c>
       <c r="S12">
-        <v>0.0009034848799190753</v>
+        <v>0.0007795215202791901</v>
       </c>
       <c r="T12">
-        <v>0.0009034848799190754</v>
+        <v>0.0007795215202791902</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>233.243637</v>
+        <v>227.2177583333333</v>
       </c>
       <c r="H13">
-        <v>699.7309110000001</v>
+        <v>681.653275</v>
       </c>
       <c r="I13">
-        <v>0.06103892951773311</v>
+        <v>0.0593570833501536</v>
       </c>
       <c r="J13">
-        <v>0.06103892951773311</v>
+        <v>0.05935708335015359</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N13">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P13">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q13">
-        <v>13151.13116973749</v>
+        <v>12051.19591608158</v>
       </c>
       <c r="R13">
-        <v>118360.1805276374</v>
+        <v>108460.7632447342</v>
       </c>
       <c r="S13">
-        <v>0.0175874574494746</v>
+        <v>0.009285817691717668</v>
       </c>
       <c r="T13">
-        <v>0.0175874574494746</v>
+        <v>0.009285817691717669</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H14">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J14">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>135.955556</v>
+        <v>281.0920463333333</v>
       </c>
       <c r="N14">
-        <v>407.866668</v>
+        <v>843.2761389999999</v>
       </c>
       <c r="O14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="P14">
-        <v>0.6947679994035034</v>
+        <v>0.8291026083535286</v>
       </c>
       <c r="Q14">
-        <v>124.5042007921947</v>
+        <v>671.095548452236</v>
       </c>
       <c r="R14">
-        <v>1120.537807129752</v>
+        <v>6039.859936070124</v>
       </c>
       <c r="S14">
-        <v>0.0001665037254553728</v>
+        <v>0.0005170997932524658</v>
       </c>
       <c r="T14">
-        <v>0.0001665037254553728</v>
+        <v>0.0005170997932524657</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H15">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J15">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1367,22 +1367,22 @@
         <v>1.347366</v>
       </c>
       <c r="O15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="P15">
-        <v>0.002295129398228494</v>
+        <v>0.001324719879221983</v>
       </c>
       <c r="Q15">
-        <v>0.4112930527693333</v>
+        <v>1.072260061583333</v>
       </c>
       <c r="R15">
-        <v>3.701637474924</v>
+        <v>9.650340554249999</v>
       </c>
       <c r="S15">
-        <v>5.500362646743759E-07</v>
+        <v>8.262094085356326E-07</v>
       </c>
       <c r="T15">
-        <v>5.500362646743759E-07</v>
+        <v>8.262094085356325E-07</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H16">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J16">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>2.896484</v>
+        <v>4.452417</v>
       </c>
       <c r="N16">
-        <v>8.689451999999999</v>
+        <v>13.357251</v>
       </c>
       <c r="O16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="P16">
-        <v>0.01480178120844327</v>
+        <v>0.01313274635953239</v>
       </c>
       <c r="Q16">
-        <v>2.652517014658666</v>
+        <v>10.629960070125</v>
       </c>
       <c r="R16">
-        <v>23.872653131928</v>
+        <v>95.66964063112499</v>
       </c>
       <c r="S16">
-        <v>3.547301713229579E-06</v>
+        <v>8.190711691086153E-06</v>
       </c>
       <c r="T16">
-        <v>3.547301713229579E-06</v>
+        <v>8.190711691086153E-06</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.9157713333333333</v>
+        <v>2.387458333333333</v>
       </c>
       <c r="H17">
-        <v>2.747314</v>
+        <v>7.162374999999999</v>
       </c>
       <c r="I17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666267</v>
       </c>
       <c r="J17">
-        <v>0.0002396537054071653</v>
+        <v>0.0006236861252666266</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>56.38366533333333</v>
+        <v>53.03808999999999</v>
       </c>
       <c r="N17">
-        <v>169.150996</v>
+        <v>159.11427</v>
       </c>
       <c r="O17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="P17">
-        <v>0.2881350899898248</v>
+        <v>0.156439925407717</v>
       </c>
       <c r="Q17">
-        <v>51.63454438052711</v>
+        <v>126.6262299545833</v>
       </c>
       <c r="R17">
-        <v>464.710899424744</v>
+        <v>1139.63606959125</v>
       </c>
       <c r="S17">
-        <v>6.905264197388853E-05</v>
+        <v>9.756941091453912E-05</v>
       </c>
       <c r="T17">
-        <v>6.905264197388853E-05</v>
+        <v>9.756941091453912E-05</v>
       </c>
     </row>
   </sheetData>
